--- a/legislator/property/output/normal/高金素梅_2012-04-30_財產申報表_tmp92521.xlsx
+++ b/legislator/property/output/normal/高金素梅_2012-04-30_財產申報表_tmp92521.xlsx
@@ -17,9 +17,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段02930000地號</t>
+  </si>
+  <si>
+    <t>100000分之16216</t>
+  </si>
+  <si>
+    <t>高金素梅</t>
+  </si>
+  <si>
+    <t>92年12月25日</t>
+  </si>
+  <si>
+    <t>033貝賣</t>
+  </si>
+  <si>
+    <t>25000000(土地建物與車位合併價）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp92521</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -40,28 +112,7 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區龍泉段一小段 0293-0000 地號</t>
-  </si>
-  <si>
-    <t>100000 分 之 16216</t>
-  </si>
-  <si>
-    <t>高金素梅</t>
-  </si>
-  <si>
-    <t>92年12月 25日</t>
-  </si>
-  <si>
-    <t>033 貝賣</t>
-  </si>
-  <si>
-    <t>25,000,000(土 地、建物與車位 合併價）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段 05819-000 建號</t>
+    <t>臺北市大安區龍泉段一小段05819000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -70,9 +121,6 @@
     <t>貝賣</t>
   </si>
   <si>
-    <t>25,000，000(土 地、建物與車位 合併價）</t>
-  </si>
-  <si>
     <t>存放機構(應敘明分支機構）</t>
   </si>
   <si>
@@ -118,19 +166,19 @@
     <t>局金素梅</t>
   </si>
   <si>
-    <t>陳麗卿 新北市泰山區明志路</t>
-  </si>
-  <si>
-    <t>石旭松 新北市泰山區明志路</t>
-  </si>
-  <si>
-    <t>6,000,000</t>
-  </si>
-  <si>
-    <t>4,000,000</t>
-  </si>
-  <si>
-    <t>96年02月 06日</t>
+    <t>陳麗卿新北市泰山區明志路</t>
+  </si>
+  <si>
+    <t>石旭松新北市泰山區明志路</t>
+  </si>
+  <si>
+    <t>6000000</t>
+  </si>
+  <si>
+    <t>4000000</t>
+  </si>
+  <si>
+    <t>96年02月06日</t>
   </si>
   <si>
     <t>借款</t>
@@ -492,13 +540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,31 +568,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>365</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2">
+        <v>926</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -562,25 +652,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -588,25 +678,25 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>148.31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -624,19 +714,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -644,16 +734,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>366738</v>
@@ -674,22 +764,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -697,22 +787,22 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -720,22 +810,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高金素梅_2012-04-30_財產申報表_tmp92521.xlsx
+++ b/legislator/property/output/normal/高金素梅_2012-04-30_財產申報表_tmp92521.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -61,10 +61,16 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區龍泉段一小段02930000地號</t>
-  </si>
-  <si>
-    <t>100000分之16216</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段05819000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>高金素梅</t>
@@ -73,69 +79,12 @@
     <t>92年12月25日</t>
   </si>
   <si>
-    <t>033貝賣</t>
+    <t>貝賣</t>
   </si>
   <si>
     <t>25000000(土地建物與車位合併價）</t>
   </si>
   <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmp92521</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段05819000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
@@ -145,43 +94,28 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>現金</t>
   </si>
   <si>
+    <t>陳麗卿新北市泰山區明志路</t>
+  </si>
+  <si>
+    <t>6000000</t>
+  </si>
+  <si>
+    <t>96年02月06日</t>
+  </si>
+  <si>
+    <t>借款</t>
+  </si>
+  <si>
     <t>局金素梅</t>
   </si>
   <si>
-    <t>陳麗卿新北市泰山區明志路</t>
-  </si>
-  <si>
     <t>石旭松新北市泰山區明志路</t>
   </si>
   <si>
-    <t>6000000</t>
-  </si>
-  <si>
     <t>4000000</t>
-  </si>
-  <si>
-    <t>96年02月06日</t>
-  </si>
-  <si>
-    <t>借款</t>
   </si>
 </sst>
 </file>
@@ -540,13 +474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,52 +523,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>365</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2">
-        <v>926</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -644,59 +537,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>148.31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2">
-        <v>148.31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -706,46 +573,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1">
         <v>366738</v>
       </c>
     </row>
@@ -756,7 +603,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -764,68 +611,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>86</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高金素梅_2012-04-30_財產申報表_tmp92521.xlsx
+++ b/legislator/property/output/normal/高金素梅_2012-04-30_財產申報表_tmp92521.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -67,22 +67,43 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區龍泉段一小段02930000地號</t>
+  </si>
+  <si>
+    <t>100000分之16216</t>
+  </si>
+  <si>
+    <t>高金素梅</t>
+  </si>
+  <si>
+    <t>92年12月25日</t>
+  </si>
+  <si>
+    <t>033貝賣</t>
+  </si>
+  <si>
+    <t>25000000(土地建物與車位合併價）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp92521</t>
+  </si>
+  <si>
     <t>臺北市大安區龍泉段一小段05819000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>高金素梅</t>
-  </si>
-  <si>
-    <t>92年12月25日</t>
-  </si>
-  <si>
     <t>貝賣</t>
-  </si>
-  <si>
-    <t>25000000(土地建物與車位合併價）</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -474,13 +495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,6 +549,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>365</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>926</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.16216</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>59.1884</v>
       </c>
     </row>
   </sheetData>
@@ -537,33 +611,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
         <v>148.31</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>926</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>148.31</v>
       </c>
     </row>
   </sheetData>
@@ -573,26 +727,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="1">
+        <v>366738</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2">
         <v>366738</v>
       </c>
     </row>
@@ -603,7 +777,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,45 +785,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>86</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高金素梅_2012-04-30_財產申報表_tmp92521.xlsx
+++ b/legislator/property/output/normal/高金素梅_2012-04-30_財產申報表_tmp92521.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>貝賣</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -693,7 +696,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -735,13 +738,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -755,13 +758,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -785,22 +788,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -808,22 +811,22 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -831,22 +834,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高金素梅_2012-04-30_財產申報表_tmp92521.xlsx
+++ b/legislator/property/output/normal/高金素梅_2012-04-30_財產申報表_tmp92521.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -109,6 +109,15 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
@@ -116,6 +125,9 @@
   </si>
   <si>
     <t>新臺幣</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>現金</t>
@@ -730,13 +742,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
@@ -747,30 +759,72 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1">
-        <v>366738</v>
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2">
         <v>366738</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>926</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -788,22 +842,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -811,22 +865,22 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -834,22 +888,22 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高金素梅_2012-04-30_財產申報表_tmp92521.xlsx
+++ b/legislator/property/output/normal/高金素梅_2012-04-30_財產申報表_tmp92521.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
@@ -130,13 +130,22 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>現金</t>
   </si>
   <si>
+    <t>局金素梅</t>
+  </si>
+  <si>
     <t>陳麗卿新北市泰山區明志路</t>
   </si>
   <si>
-    <t>6000000</t>
+    <t>石旭松新北市泰山區明志路</t>
   </si>
   <si>
     <t>96年02月06日</t>
@@ -145,13 +154,7 @@
     <t>借款</t>
   </si>
   <si>
-    <t>局金素梅</t>
-  </si>
-  <si>
-    <t>石旭松新北市泰山區明志路</t>
-  </si>
-  <si>
-    <t>4000000</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -834,76 +837,139 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>926</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>41</v>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>926</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高金素梅_2012-04-30_財產申報表_tmp92521.xlsx
+++ b/legislator/property/output/normal/高金素梅_2012-04-30_財產申報表_tmp92521.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -79,7 +79,7 @@
     <t>92年12月25日</t>
   </si>
   <si>
-    <t>033貝賣</t>
+    <t>買賣</t>
   </si>
   <si>
     <t>25000000(土地建物與車位合併價）</t>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>全部</t>
-  </si>
-  <si>
-    <t>貝賣</t>
   </si>
   <si>
     <t>building</t>
@@ -705,13 +702,13 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -753,13 +750,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -794,13 +791,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -809,7 +806,7 @@
         <v>366738</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>23</v>
@@ -845,10 +842,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -889,25 +886,25 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2">
         <v>6000000</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -933,25 +930,25 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
